--- a/PracticeSheet.xlsx
+++ b/PracticeSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhkh\Documents\UBC\COOP\S2019 CARDONA LAB\High Density Transposon Mutant Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F0038D-3545-476B-9E7D-74BAD0190EB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3430BC-C93C-43DF-AB6E-8C771C17245D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="14374" xr2:uid="{F2D4EA85-3696-4C72-B544-258F025EF0EE}"/>
+    <workbookView xWindow="275" yWindow="157" windowWidth="18851" windowHeight="10303" xr2:uid="{F2D4EA85-3696-4C72-B544-258F025EF0EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>a</t>
   </si>
@@ -115,6 +115,36 @@
   </si>
   <si>
     <t>mn</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>lps</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>ftg</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>mnm</t>
+  </si>
+  <si>
+    <t>mbc</t>
   </si>
 </sst>
 </file>
@@ -466,15 +496,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD4661C-C763-4B6E-9515-401C70A35075}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -538,7 +568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -570,7 +600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -602,7 +632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -613,7 +643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -624,7 +654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -635,7 +665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -666,8 +696,20 @@
       <c r="J8">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8">
+        <v>14</v>
+      </c>
+      <c r="N8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -698,8 +740,20 @@
       <c r="J9">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9">
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -731,7 +785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -763,7 +817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -795,7 +849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -826,8 +880,20 @@
       <c r="J13">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13">
+        <v>15</v>
+      </c>
+      <c r="N13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -838,7 +904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -870,7 +936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -902,7 +968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -910,6 +976,344 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18">
+        <v>24</v>
+      </c>
+      <c r="J18">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18">
+        <v>18</v>
+      </c>
+      <c r="N18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+      <c r="F19">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20">
+        <v>24</v>
+      </c>
+      <c r="J20">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20">
+        <v>18</v>
+      </c>
+      <c r="N20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>21</v>
+      </c>
+      <c r="F21">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22">
+        <v>25</v>
+      </c>
+      <c r="J22">
+        <v>26</v>
+      </c>
+      <c r="K22" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22">
+        <v>18</v>
+      </c>
+      <c r="N22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24">
+        <v>27</v>
+      </c>
+      <c r="J24">
+        <v>28</v>
+      </c>
+      <c r="K24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24">
+        <v>18</v>
+      </c>
+      <c r="N24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
         <v>7</v>
       </c>
     </row>

--- a/PracticeSheet.xlsx
+++ b/PracticeSheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhkh\Documents\UBC\COOP\S2019 CARDONA LAB\High Density Transposon Mutant Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3430BC-C93C-43DF-AB6E-8C771C17245D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAF1A8F-E658-40EF-B932-5BDD2EA1270B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="275" yWindow="157" windowWidth="18851" windowHeight="10303" xr2:uid="{F2D4EA85-3696-4C72-B544-258F025EF0EE}"/>
+    <workbookView xWindow="1296" yWindow="1126" windowWidth="18851" windowHeight="10302" xr2:uid="{F2D4EA85-3696-4C72-B544-258F025EF0EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,9 +67,6 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Locus tag</t>
-  </si>
-  <si>
     <t>at</t>
   </si>
   <si>
@@ -145,6 +143,9 @@
   </si>
   <si>
     <t>mbc</t>
+  </si>
+  <si>
+    <t>Locus TAG</t>
   </si>
 </sst>
 </file>
@@ -496,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD4661C-C763-4B6E-9515-401C70A35075}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:N18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -527,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -556,10 +557,10 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2">
         <v>9</v>
@@ -588,10 +589,10 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -620,10 +621,10 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4">
         <v>11</v>
@@ -685,10 +686,10 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8">
         <v>15</v>
@@ -697,10 +698,10 @@
         <v>16</v>
       </c>
       <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
         <v>30</v>
-      </c>
-      <c r="L8" t="s">
-        <v>31</v>
       </c>
       <c r="M8">
         <v>14</v>
@@ -729,10 +730,10 @@
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9">
         <v>16</v>
@@ -741,10 +742,10 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
         <v>30</v>
-      </c>
-      <c r="L9" t="s">
-        <v>31</v>
       </c>
       <c r="M9">
         <v>14</v>
@@ -773,10 +774,10 @@
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10">
         <v>17</v>
@@ -805,10 +806,10 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11">
         <v>18</v>
@@ -837,10 +838,10 @@
         <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12">
         <v>19</v>
@@ -869,10 +870,10 @@
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13">
         <v>20</v>
@@ -881,10 +882,10 @@
         <v>21</v>
       </c>
       <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
         <v>32</v>
-      </c>
-      <c r="L13" t="s">
-        <v>33</v>
       </c>
       <c r="M13">
         <v>15</v>
@@ -924,10 +925,10 @@
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15">
         <v>22</v>
@@ -956,10 +957,10 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I16">
         <v>23</v>
@@ -999,10 +1000,10 @@
         <v>21</v>
       </c>
       <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
         <v>28</v>
-      </c>
-      <c r="H18" t="s">
-        <v>29</v>
       </c>
       <c r="I18">
         <v>24</v>
@@ -1011,10 +1012,10 @@
         <v>25</v>
       </c>
       <c r="K18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" t="s">
         <v>34</v>
-      </c>
-      <c r="L18" t="s">
-        <v>35</v>
       </c>
       <c r="M18">
         <v>18</v>
@@ -1043,10 +1044,10 @@
         <v>22</v>
       </c>
       <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
         <v>36</v>
-      </c>
-      <c r="H19" t="s">
-        <v>37</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1075,10 +1076,10 @@
         <v>21</v>
       </c>
       <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
         <v>28</v>
-      </c>
-      <c r="H20" t="s">
-        <v>29</v>
       </c>
       <c r="I20">
         <v>24</v>
@@ -1087,10 +1088,10 @@
         <v>25</v>
       </c>
       <c r="K20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
         <v>34</v>
-      </c>
-      <c r="L20" t="s">
-        <v>35</v>
       </c>
       <c r="M20">
         <v>18</v>
@@ -1119,10 +1120,10 @@
         <v>22</v>
       </c>
       <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s">
         <v>36</v>
-      </c>
-      <c r="H21" t="s">
-        <v>37</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -1151,10 +1152,10 @@
         <v>22</v>
       </c>
       <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
         <v>28</v>
-      </c>
-      <c r="H22" t="s">
-        <v>29</v>
       </c>
       <c r="I22">
         <v>25</v>
@@ -1163,10 +1164,10 @@
         <v>26</v>
       </c>
       <c r="K22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" t="s">
         <v>34</v>
-      </c>
-      <c r="L22" t="s">
-        <v>35</v>
       </c>
       <c r="M22">
         <v>18</v>
@@ -1195,10 +1196,10 @@
         <v>22</v>
       </c>
       <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" t="s">
         <v>36</v>
-      </c>
-      <c r="H23" t="s">
-        <v>37</v>
       </c>
       <c r="I23">
         <v>3</v>
@@ -1227,10 +1228,10 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
         <v>28</v>
-      </c>
-      <c r="H24" t="s">
-        <v>29</v>
       </c>
       <c r="I24">
         <v>27</v>
@@ -1239,10 +1240,10 @@
         <v>28</v>
       </c>
       <c r="K24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" t="s">
         <v>34</v>
-      </c>
-      <c r="L24" t="s">
-        <v>35</v>
       </c>
       <c r="M24">
         <v>18</v>
@@ -1317,7 +1318,27 @@
         <v>7</v>
       </c>
     </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f>COUNT(A2:A30)</f>
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631A88F7-3653-434B-9A87-7F9CDC25F281}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PracticeSheet.xlsx
+++ b/PracticeSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhkh\Documents\UBC\COOP\S2019 CARDONA LAB\High Density Transposon Mutant Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAF1A8F-E658-40EF-B932-5BDD2EA1270B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57E78BA-C211-4884-9F67-F54799048846}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1296" yWindow="1126" windowWidth="18851" windowHeight="10302" xr2:uid="{F2D4EA85-3696-4C72-B544-258F025EF0EE}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="14374" xr2:uid="{F2D4EA85-3696-4C72-B544-258F025EF0EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,16 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>e</t>
   </si>
@@ -146,6 +137,21 @@
   </si>
   <si>
     <t>Locus TAG</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>lse</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>position</t>
   </si>
 </sst>
 </file>
@@ -497,44 +503,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD4661C-C763-4B6E-9515-401C70A35075}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -557,10 +563,10 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I2">
         <v>9</v>
@@ -589,10 +595,10 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -609,7 +615,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -621,10 +627,10 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I4">
         <v>11</v>
@@ -641,7 +647,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -652,7 +658,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -663,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -686,10 +692,10 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I8">
         <v>15</v>
@@ -698,10 +704,10 @@
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M8">
         <v>14</v>
@@ -730,10 +736,10 @@
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I9">
         <v>16</v>
@@ -742,10 +748,10 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M9">
         <v>14</v>
@@ -762,7 +768,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -774,10 +780,10 @@
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I10">
         <v>17</v>
@@ -794,7 +800,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -806,10 +812,10 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I11">
         <v>18</v>
@@ -826,7 +832,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -838,10 +844,10 @@
         <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I12">
         <v>19</v>
@@ -870,10 +876,10 @@
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I13">
         <v>20</v>
@@ -882,10 +888,10 @@
         <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M13">
         <v>15</v>
@@ -902,7 +908,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -925,10 +931,10 @@
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I15">
         <v>22</v>
@@ -957,10 +963,10 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I16">
         <v>23</v>
@@ -969,7 +975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -977,10 +983,10 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1000,10 +1006,10 @@
         <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I18">
         <v>24</v>
@@ -1012,10 +1018,10 @@
         <v>25</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M18">
         <v>18</v>
@@ -1024,7 +1030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>20</v>
@@ -1044,10 +1050,10 @@
         <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1056,7 +1062,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1076,10 +1082,10 @@
         <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I20">
         <v>24</v>
@@ -1088,10 +1094,10 @@
         <v>25</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M20">
         <v>18</v>
@@ -1099,8 +1105,20 @@
       <c r="N20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20" t="s">
+        <v>35</v>
+      </c>
+      <c r="P20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20">
+        <v>18</v>
+      </c>
+      <c r="R20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1108,7 +1126,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1120,10 +1138,10 @@
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -1132,7 +1150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1152,10 +1170,10 @@
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I22">
         <v>25</v>
@@ -1164,10 +1182,10 @@
         <v>26</v>
       </c>
       <c r="K22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M22">
         <v>18</v>
@@ -1176,7 +1194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>18</v>
       </c>
@@ -1184,7 +1202,7 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>20</v>
@@ -1196,10 +1214,10 @@
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I23">
         <v>3</v>
@@ -1208,7 +1226,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1228,10 +1246,10 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I24">
         <v>27</v>
@@ -1240,10 +1258,10 @@
         <v>28</v>
       </c>
       <c r="K24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M24">
         <v>18</v>
@@ -1252,7 +1270,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1260,10 +1278,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1271,10 +1289,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1282,10 +1300,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1293,10 +1311,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1304,10 +1322,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1315,10 +1333,10 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>COUNT(A2:A30)</f>
         <v>29</v>

--- a/PracticeSheet.xlsx
+++ b/PracticeSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhkh\Documents\UBC\COOP\S2019 CARDONA LAB\High Density Transposon Mutant Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57E78BA-C211-4884-9F67-F54799048846}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B623525A-6218-4AE7-A9DA-7DA6D1335D7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="14374" xr2:uid="{F2D4EA85-3696-4C72-B544-258F025EF0EE}"/>
+    <workbookView xWindow="-1636" yWindow="105" windowWidth="18851" windowHeight="10302" xr2:uid="{F2D4EA85-3696-4C72-B544-258F025EF0EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>e</t>
   </si>
@@ -82,66 +82,24 @@
     <t>x42</t>
   </si>
   <si>
-    <t>ar</t>
-  </si>
-  <si>
-    <t>af</t>
-  </si>
-  <si>
-    <t>rx</t>
-  </si>
-  <si>
-    <t>z42</t>
-  </si>
-  <si>
-    <t>pdw</t>
-  </si>
-  <si>
-    <t>lp</t>
-  </si>
-  <si>
-    <t>jk</t>
-  </si>
-  <si>
-    <t>mn</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>lps</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
     <t>def</t>
   </si>
   <si>
     <t>ftg</t>
   </si>
   <si>
-    <t>qwe</t>
-  </si>
-  <si>
     <t>car</t>
   </si>
   <si>
-    <t>ls</t>
-  </si>
-  <si>
     <t>mnm</t>
   </si>
   <si>
-    <t>mbc</t>
-  </si>
-  <si>
     <t>Locus TAG</t>
   </si>
   <si>
-    <t>cart</t>
-  </si>
-  <si>
     <t>lse</t>
   </si>
   <si>
@@ -152,6 +110,54 @@
   </si>
   <si>
     <t>position</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BCAL12313</t>
+  </si>
+  <si>
+    <t>BCAL432</t>
+  </si>
+  <si>
+    <t>BCAL42</t>
+  </si>
+  <si>
+    <t>BCAL398</t>
+  </si>
+  <si>
+    <t>BCAL38</t>
+  </si>
+  <si>
+    <t>BCAL84</t>
+  </si>
+  <si>
+    <t>BCAL44</t>
+  </si>
+  <si>
+    <t>BCAL123d</t>
+  </si>
+  <si>
+    <t>BCAL64</t>
+  </si>
+  <si>
+    <t>BCAL9f</t>
+  </si>
+  <si>
+    <t>BCAL5</t>
+  </si>
+  <si>
+    <t>BCAL0</t>
+  </si>
+  <si>
+    <t>BCAL4</t>
+  </si>
+  <si>
+    <t>BCALop</t>
+  </si>
+  <si>
+    <t>BCALk</t>
   </si>
 </sst>
 </file>
@@ -503,26 +509,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD4661C-C763-4B6E-9515-401C70A35075}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -534,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -543,7 +549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -566,7 +572,7 @@
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I2">
         <v>9</v>
@@ -574,8 +580,11 @@
       <c r="J2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -598,7 +607,7 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -607,7 +616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -630,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I4">
         <v>11</v>
@@ -639,7 +648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -650,7 +659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -661,7 +670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -672,7 +681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -695,7 +704,7 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I8">
         <v>15</v>
@@ -704,19 +713,16 @@
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>14</v>
-      </c>
-      <c r="N8">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -739,7 +745,7 @@
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I9">
         <v>16</v>
@@ -748,19 +754,16 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>14</v>
-      </c>
-      <c r="N9">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -783,7 +786,7 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I10">
         <v>17</v>
@@ -792,7 +795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -815,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I11">
         <v>18</v>
@@ -824,7 +827,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -847,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I12">
         <v>19</v>
@@ -856,7 +859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -879,7 +882,7 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I13">
         <v>20</v>
@@ -888,19 +891,16 @@
         <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>15</v>
-      </c>
-      <c r="N13">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -911,7 +911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -934,7 +934,7 @@
         <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I15">
         <v>22</v>
@@ -943,7 +943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -966,7 +966,7 @@
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I16">
         <v>23</v>
@@ -975,7 +975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -986,7 +986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1006,10 +1006,10 @@
         <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I18">
         <v>24</v>
@@ -1018,19 +1018,16 @@
         <v>25</v>
       </c>
       <c r="K18" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L18" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>18</v>
-      </c>
-      <c r="N18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1050,10 +1047,10 @@
         <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1062,7 +1059,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1082,10 +1079,10 @@
         <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I20">
         <v>24</v>
@@ -1094,31 +1091,28 @@
         <v>25</v>
       </c>
       <c r="K20" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>18</v>
-      </c>
-      <c r="N20">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="N20" t="s">
+        <v>40</v>
       </c>
       <c r="O20" t="s">
-        <v>35</v>
-      </c>
-      <c r="P20" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q20">
-        <v>18</v>
-      </c>
-      <c r="R20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="P20">
+        <v>19</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1138,10 +1132,10 @@
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -1150,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1170,10 +1164,10 @@
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I22">
         <v>25</v>
@@ -1182,19 +1176,16 @@
         <v>26</v>
       </c>
       <c r="K22" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L22" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>18</v>
-      </c>
-      <c r="N22">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>18</v>
       </c>
@@ -1214,10 +1205,10 @@
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I23">
         <v>3</v>
@@ -1226,7 +1217,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1246,10 +1237,10 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I24">
         <v>27</v>
@@ -1258,19 +1249,16 @@
         <v>28</v>
       </c>
       <c r="K24" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L24" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>18</v>
-      </c>
-      <c r="N24">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1281,7 +1269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1292,7 +1280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1303,7 +1291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1314,7 +1302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1325,7 +1313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1336,7 +1324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>COUNT(A2:A30)</f>
         <v>29</v>

--- a/PracticeSheet.xlsx
+++ b/PracticeSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhkh\Documents\UBC\COOP\S2019 CARDONA LAB\High Density Transposon Mutant Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B623525A-6218-4AE7-A9DA-7DA6D1335D7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47349D77-231E-404D-8E36-800064E824E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1636" yWindow="105" windowWidth="18851" windowHeight="10302" xr2:uid="{F2D4EA85-3696-4C72-B544-258F025EF0EE}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="14374" xr2:uid="{F2D4EA85-3696-4C72-B544-258F025EF0EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>e</t>
   </si>
@@ -97,9 +97,6 @@
     <t>mnm</t>
   </si>
   <si>
-    <t>Locus TAG</t>
-  </si>
-  <si>
     <t>lse</t>
   </si>
   <si>
@@ -115,49 +112,55 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>BCAL12313</t>
-  </si>
-  <si>
-    <t>BCAL432</t>
-  </si>
-  <si>
-    <t>BCAL42</t>
-  </si>
-  <si>
-    <t>BCAL398</t>
-  </si>
-  <si>
     <t>BCAL38</t>
   </si>
   <si>
-    <t>BCAL84</t>
-  </si>
-  <si>
-    <t>BCAL44</t>
-  </si>
-  <si>
-    <t>BCAL123d</t>
-  </si>
-  <si>
-    <t>BCAL64</t>
-  </si>
-  <si>
-    <t>BCAL9f</t>
-  </si>
-  <si>
-    <t>BCAL5</t>
-  </si>
-  <si>
     <t>BCAL0</t>
   </si>
   <si>
-    <t>BCAL4</t>
-  </si>
-  <si>
-    <t>BCALop</t>
-  </si>
-  <si>
-    <t>BCALk</t>
+    <t>QU43_123d</t>
+  </si>
+  <si>
+    <t>Old Locus Tag</t>
+  </si>
+  <si>
+    <t>strand</t>
+  </si>
+  <si>
+    <t>BCAL3467</t>
+  </si>
+  <si>
+    <t>BCAS0355</t>
+  </si>
+  <si>
+    <t>BCAL0347</t>
+  </si>
+  <si>
+    <t>BCAL0305</t>
+  </si>
+  <si>
+    <t>BCAM2303</t>
+  </si>
+  <si>
+    <t>BCAM2049</t>
+  </si>
+  <si>
+    <t>BCAL3292</t>
+  </si>
+  <si>
+    <t>BCAL3134</t>
+  </si>
+  <si>
+    <t>pBCA002</t>
+  </si>
+  <si>
+    <t>BCAM1362</t>
+  </si>
+  <si>
+    <t>BCAS0100</t>
+  </si>
+  <si>
+    <t>BCAS0025</t>
   </si>
 </sst>
 </file>
@@ -509,822 +512,915 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD4661C-C763-4B6E-9515-401C70A35075}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2">
-        <v>9</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>6</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3">
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3">
         <v>10</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>7</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4">
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4">
         <v>11</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>10</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>11</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>12</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8">
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8">
         <v>15</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>16</v>
       </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
       <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
         <v>17</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
         <v>11</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>12</v>
       </c>
-      <c r="F9">
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9">
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9">
-        <v>16</v>
-      </c>
-      <c r="J9">
-        <v>17</v>
-      </c>
-      <c r="K9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>12</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>13</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>14</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10">
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10">
         <v>17</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
         <v>13</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>14</v>
       </c>
-      <c r="F11">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>11</v>
       </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11">
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11">
+        <v>17</v>
+      </c>
+      <c r="K11">
         <v>18</v>
       </c>
-      <c r="J11">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>5</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
         <v>14</v>
       </c>
-      <c r="E12">
-        <v>15</v>
-      </c>
-      <c r="F12">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12">
-        <v>19</v>
+      <c r="I12" t="s">
+        <v>35</v>
       </c>
       <c r="J12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="K12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
         <v>13</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>15</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>16</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>17</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13">
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13">
         <v>20</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>21</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>18</v>
       </c>
-      <c r="L13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13">
+      <c r="M13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>15</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>17</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>18</v>
       </c>
-      <c r="F15">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="G15">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
         <v>13</v>
       </c>
-      <c r="H15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15">
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15">
         <v>22</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>16</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
       <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>18</v>
       </c>
-      <c r="E16">
-        <v>19</v>
-      </c>
       <c r="F16">
+        <v>19</v>
+      </c>
+      <c r="G16">
         <v>20</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>14</v>
       </c>
-      <c r="H16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16">
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16">
         <v>23</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="C18">
         <v>18</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
       <c r="D18">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E18">
+        <v>19</v>
+      </c>
+      <c r="F18">
         <v>20</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>21</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>16</v>
       </c>
-      <c r="H18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18">
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18">
         <v>24</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>25</v>
       </c>
-      <c r="K18" t="s">
-        <v>19</v>
-      </c>
       <c r="L18" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="M18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
         <v>5</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>20</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>21</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>22</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>20</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20">
+        <v>24</v>
+      </c>
+      <c r="K20">
+        <v>25</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" t="s">
         <v>36</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>20</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
-      <c r="E20">
-        <v>20</v>
-      </c>
-      <c r="F20">
+      <c r="N20">
+        <v>19</v>
+      </c>
+      <c r="O20" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" t="s">
         <v>21</v>
       </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20">
-        <v>24</v>
-      </c>
-      <c r="J20">
-        <v>25</v>
-      </c>
-      <c r="K20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20">
-        <v>19</v>
-      </c>
-      <c r="N20" t="s">
-        <v>40</v>
-      </c>
-      <c r="O20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P20">
-        <v>19</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q20">
+        <v>19</v>
+      </c>
+      <c r="R20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
         <v>5</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>20</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>21</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>22</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>20</v>
       </c>
-      <c r="H21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
+      <c r="I21" t="s">
+        <v>39</v>
       </c>
       <c r="J21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
+        <v>-1</v>
+      </c>
+      <c r="C22">
         <v>21</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
       <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22">
         <v>20</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>21</v>
       </c>
-      <c r="F22">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>16</v>
       </c>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22">
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22">
+        <v>24</v>
+      </c>
+      <c r="K22">
         <v>25</v>
       </c>
-      <c r="J22">
-        <v>26</v>
-      </c>
-      <c r="K22" t="s">
-        <v>19</v>
-      </c>
       <c r="L22" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="M22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>18</v>
       </c>
       <c r="B23">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
         <v>5</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>20</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>21</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>22</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>20</v>
       </c>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23">
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23">
         <v>3</v>
       </c>
-      <c r="J23">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
         <v>22</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
       <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
         <v>21</v>
       </c>
-      <c r="E24">
-        <v>22</v>
-      </c>
-      <c r="F24">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>16</v>
       </c>
-      <c r="H24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24">
-        <v>27</v>
+      <c r="I24" t="s">
+        <v>38</v>
       </c>
       <c r="J24">
-        <v>28</v>
-      </c>
-      <c r="K24" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="K24">
+        <v>25</v>
       </c>
       <c r="L24" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="M24" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>24</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>25</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28">
+        <v>-1</v>
+      </c>
+      <c r="C28">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29">
+        <v>-1</v>
+      </c>
+      <c r="C29">
         <v>27</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>COUNT(A2:A30)</f>
         <v>29</v>

--- a/PracticeSheet.xlsx
+++ b/PracticeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhkh\Documents\UBC\COOP\S2019 CARDONA LAB\High Density Transposon Mutant Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47349D77-231E-404D-8E36-800064E824E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F912ED-5CAD-4552-AA0E-8E057E309C2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="14374" xr2:uid="{F2D4EA85-3696-4C72-B544-258F025EF0EE}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
   <si>
     <t>e</t>
   </si>
@@ -142,9 +142,6 @@
     <t>BCAM2303</t>
   </si>
   <si>
-    <t>BCAM2049</t>
-  </si>
-  <si>
     <t>BCAL3292</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>BCAS0025</t>
+  </si>
+  <si>
+    <t>BCAM2003</t>
   </si>
 </sst>
 </file>
@@ -512,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD4661C-C763-4B6E-9515-401C70A35075}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -961,404 +961,431 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
         <v>15</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>17</v>
-      </c>
-      <c r="F15">
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15">
         <v>18</v>
       </c>
-      <c r="G15">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="K15">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
         <v>13</v>
       </c>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15">
-        <v>22</v>
-      </c>
-      <c r="K15">
-        <v>23</v>
+      <c r="M15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>16</v>
-      </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16">
         <v>18</v>
       </c>
-      <c r="F16">
-        <v>19</v>
-      </c>
       <c r="G16">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J16">
+        <v>22</v>
+      </c>
+      <c r="K16">
         <v>23</v>
-      </c>
-      <c r="K16">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>19</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17">
+        <v>23</v>
+      </c>
+      <c r="K17">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>-1</v>
-      </c>
-      <c r="C18">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>19</v>
-      </c>
-      <c r="F18">
-        <v>20</v>
-      </c>
-      <c r="G18">
-        <v>21</v>
-      </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18">
-        <v>24</v>
-      </c>
-      <c r="K18">
-        <v>25</v>
-      </c>
-      <c r="L18" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" t="s">
-        <v>36</v>
-      </c>
-      <c r="N18">
-        <v>19</v>
+      <c r="D18" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-1</v>
+      </c>
+      <c r="C19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
+      <c r="D19">
+        <v>1</v>
       </c>
       <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="F19">
         <v>20</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>21</v>
       </c>
-      <c r="G19">
-        <v>22</v>
-      </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="K19">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
         <v>20</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>19</v>
-      </c>
       <c r="F20">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
         <v>20</v>
-      </c>
-      <c r="G20">
-        <v>21</v>
-      </c>
-      <c r="H20" t="s">
-        <v>16</v>
       </c>
       <c r="I20" t="s">
         <v>38</v>
       </c>
       <c r="J20">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>25</v>
-      </c>
-      <c r="L20" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" t="s">
-        <v>36</v>
-      </c>
-      <c r="N20">
-        <v>19</v>
-      </c>
-      <c r="O20" t="s">
-        <v>41</v>
-      </c>
-      <c r="P20" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q20">
-        <v>19</v>
-      </c>
-      <c r="R20" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C21">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
       </c>
       <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21">
         <v>20</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>21</v>
       </c>
-      <c r="G21">
-        <v>22</v>
-      </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="K21">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21">
+        <v>19</v>
+      </c>
+      <c r="O21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21">
+        <v>19</v>
+      </c>
+      <c r="R21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>-1</v>
-      </c>
-      <c r="C22">
+      <c r="F22">
         <v>21</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>19</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s">
         <v>20</v>
-      </c>
-      <c r="G22">
-        <v>21</v>
-      </c>
-      <c r="H22" t="s">
-        <v>16</v>
       </c>
       <c r="I22" t="s">
         <v>38</v>
       </c>
       <c r="J22">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="K22">
-        <v>25</v>
-      </c>
-      <c r="L22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" t="s">
-        <v>36</v>
-      </c>
-      <c r="N22">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C23">
-        <v>19</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
       </c>
       <c r="E23">
+        <v>19</v>
+      </c>
+      <c r="F23">
         <v>20</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>21</v>
       </c>
-      <c r="G23">
-        <v>22</v>
-      </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="K23">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
         <v>21</v>
       </c>
-      <c r="B24">
-        <v>-1</v>
-      </c>
-      <c r="C24">
+      <c r="G24">
         <v>22</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>19</v>
-      </c>
-      <c r="F24">
+      <c r="H24" t="s">
         <v>20</v>
-      </c>
-      <c r="G24">
-        <v>21</v>
-      </c>
-      <c r="H24" t="s">
-        <v>16</v>
       </c>
       <c r="I24" t="s">
         <v>38</v>
       </c>
       <c r="J24">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="K24">
-        <v>25</v>
-      </c>
-      <c r="L24" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" t="s">
-        <v>40</v>
-      </c>
-      <c r="N24">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>-1</v>
+      </c>
+      <c r="C25">
         <v>22</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>23</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>19</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25">
+        <v>24</v>
+      </c>
+      <c r="K25">
+        <v>25</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>23</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>24</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -1366,13 +1393,13 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>24</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>25</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -1380,13 +1407,13 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>25</v>
-      </c>
-      <c r="B28">
-        <v>-1</v>
-      </c>
-      <c r="C28">
-        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -1394,13 +1421,13 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>-1</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -1408,22 +1435,36 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>-1</v>
+      </c>
+      <c r="C30">
         <v>27</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>28</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <f>COUNT(A2:A30)</f>
-        <v>29</v>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f>COUNT(A2:A31)</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
